--- a/tspi/ciclo-1/20106381.xlsx
+++ b/tspi/ciclo-1/20106381.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -152,6 +152,45 @@
   <si>
     <t>Crear el borrador #1 del documento de requerimientos.</t>
   </si>
+  <si>
+    <t>Cada miembro del equipo creo un resumen con los detalles del tutorial.</t>
+  </si>
+  <si>
+    <t>Todos los miembros del equipo han leído los capítulos 1, 2, 3 y el apéndice A del libro Introduction to TSPi.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</t>
+  </si>
+  <si>
+    <t>Todos los miembros del equipo han leído el capítulo 4 del libro Introduction to TSPi. El equipo ha completado el lanzamiento del ciclo #1.</t>
+  </si>
+  <si>
+    <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió el diseño conceptual del proyecto y completó la forma STRAT. El equipo documentó los riesgos y problemas encontrados.</t>
+  </si>
+  <si>
+    <t>Se ha creado la minuta de la reunión #1 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se identificó y documentó una lista de actores y casos de uso, y de escenarios.</t>
+  </si>
+  <si>
+    <t>Se ha creado el borrador #1 del diagrama de casos de uso y del documento de escenarios. Se ha creado el esquema del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se creó el borrador #1 del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se ha creado la minuta de la reunión #2 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se actualizó la lista de actores, casos de uso y de escenarios.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo ha leído los capítulos 10, 16, 17 y 18 del libro Introduction to TSPi. El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +200,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,6 +237,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -266,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -353,6 +397,9 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +766,7 @@
   <dimension ref="A1:ALY10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -769,12 +816,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="15">
+    <row r="2" spans="1:1013" ht="25.5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="8">
         <v>7.5</v>
@@ -1812,6 +1863,12 @@
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="E3" s="8">
         <v>5</v>
       </c>
@@ -2841,12 +2898,18 @@
       <c r="ALX3" s="10"/>
       <c r="ALY3" s="10"/>
     </row>
-    <row r="4" spans="1:1013" ht="30">
+    <row r="4" spans="1:1013" ht="38.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="8">
         <v>5</v>
@@ -3884,6 +3947,8 @@
       <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="8">
         <v>10</v>
       </c>
@@ -4920,6 +4985,8 @@
       <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="8">
         <v>15</v>
       </c>
@@ -5956,6 +6023,12 @@
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="8">
         <v>10</v>
       </c>
@@ -6985,12 +7058,18 @@
       <c r="ALX7" s="10"/>
       <c r="ALY7" s="10"/>
     </row>
-    <row r="8" spans="1:1013" ht="30">
+    <row r="8" spans="1:1013" ht="38.25">
       <c r="A8" s="9">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="8">
         <v>4</v>
@@ -8019,6 +8098,12 @@
       <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>55</v>
+      </c>
       <c r="E9" s="8">
         <v>10</v>
       </c>
@@ -9048,12 +9133,18 @@
       <c r="ALX9" s="10"/>
       <c r="ALY9" s="10"/>
     </row>
-    <row r="10" spans="1:1013" ht="30">
+    <row r="10" spans="1:1013" ht="63.75">
       <c r="A10" s="9">
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="8">
         <v>5</v>
